--- a/data/b copy/31-03-2022.xlsx
+++ b/data/b copy/31-03-2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nra29/GDrive - DL02/MF_Analysis/data/b/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nra29/GDrive - DL02/MF_Analysis/data/b copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B04BE9-AE0C-E548-94B1-65FCAD3ABBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B2B0A-D920-4942-A118-9D02E7000CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="232">
   <si>
     <t>Name</t>
   </si>
@@ -714,6 +714,9 @@
   </si>
   <si>
     <t>umesh.r.anand@gmail</t>
+  </si>
+  <si>
+    <t>Umesh Raghunandanlal Anand</t>
   </si>
 </sst>
 </file>
@@ -732,19 +735,23 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1144,7 +1151,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
